--- a/biology/Zoologie/Australoplana_sanguinea/Australoplana_sanguinea.xlsx
+++ b/biology/Zoologie/Australoplana_sanguinea/Australoplana_sanguinea.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Australoplana sanguinea est une espèce de vers plats terrestres du genre Australoplana et de la famille des Geoplanidae (sous-famille des Rhynchodeminae). Elle se trouve en Australie orientale[1]. Il s'agit d'une espèce invasive, arrivée en Nouvelle-Zélande et qui se retrouve parfois en Europe (France, Royaume-Uni[2]).
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Australoplana sanguinea est une espèce de vers plats terrestres du genre Australoplana et de la famille des Geoplanidae (sous-famille des Rhynchodeminae). Elle se trouve en Australie orientale. Il s'agit d'une espèce invasive, arrivée en Nouvelle-Zélande et qui se retrouve parfois en Europe (France, Royaume-Uni).
 </t>
         </is>
       </c>
@@ -512,6 +524,8 @@
         </is>
       </c>
       <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -537,17 +551,12 @@
           <t>Systématique</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le nom valide complet (avec auteur) de ce taxon est Australoplana sanguinea (Moseley, 1877)[3].
-Ce taxon porte en français le nom vernaculaire ou normalisé suivant : Ver plat d'Australie[4].
-Synonymes
-Australoplana sanguinea a pour synonymes[3] :
-Australopacifica sanguinea (Moseley, 1877) ;
-Caenoplana sanguinea Moseley, 1877 ;
-Geoplana sanguinea Moseley, 1877.
-Sous-espèces
-Selon World Register of Marine Species                               (21 janvier 2024)[3], une sous-espèce a été identifiée : Australoplana sanguinea alba (Jones, 1981).
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le nom valide complet (avec auteur) de ce taxon est Australoplana sanguinea (Moseley, 1877).
+Ce taxon porte en français le nom vernaculaire ou normalisé suivant : Ver plat d'Australie.
 </t>
         </is>
       </c>
@@ -573,13 +582,94 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
+          <t>Systématique</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Synonymes</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Australoplana sanguinea a pour synonymes :
+Australopacifica sanguinea (Moseley, 1877) ;
+Caenoplana sanguinea Moseley, 1877 ;
+Geoplana sanguinea Moseley, 1877.</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Australoplana_sanguinea</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Australoplana_sanguinea</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Systématique</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Sous-espèces</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon World Register of Marine Species                               (21 janvier 2024), une sous-espèce a été identifiée : Australoplana sanguinea alba (Jones, 1981).
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Australoplana_sanguinea</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Australoplana_sanguinea</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
           <t>Sources</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Publication originale
-(en) Henry Nottidge Moseley, « Notes on the Structure of several forms of land planarians, with a description of two new genera and several new species, and a list of all species at present known », Quarterly Journal of Microscopical Science, Nouvelle Série, vol. 18, 1877, p. 273-292, pl. XX
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Publication originale</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">(en) Henry Nottidge Moseley, « Notes on the Structure of several forms of land planarians, with a description of two new genera and several new species, and a list of all species at present known », Quarterly Journal of Microscopical Science, Nouvelle Série, vol. 18, 1877, p. 273-292, pl. XX
 </t>
         </is>
       </c>
